--- a/data-raw/extra info/mysql_settings.xlsx
+++ b/data-raw/extra info/mysql_settings.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofexeteruk-my.sharepoint.com/personal/k_young3_exeter_ac_uk/Documents/CPRD Aurum/Exeter_CPRD_Aurum/data-raw/extra info/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ky279\OneDrive - University of Exeter\CPRD\Exeter_Diabetes_aurum_package\data-raw\extra info\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
   <si>
     <t>Setting</t>
   </si>
@@ -99,6 +99,15 @@
   </si>
   <si>
     <t>2 Gb (max)</t>
+  </si>
+  <si>
+    <t>innodb_buffer_pool_size</t>
+  </si>
+  <si>
+    <t>134.217728 MB</t>
+  </si>
+  <si>
+    <t>2 Gb</t>
   </si>
 </sst>
 </file>
@@ -142,12 +151,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -155,6 +161,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -448,7 +457,7 @@
     <col min="3" max="3" width="10.77734375" customWidth="1"/>
     <col min="4" max="4" width="20.77734375" customWidth="1"/>
     <col min="5" max="5" width="10.77734375" customWidth="1"/>
-    <col min="6" max="6" width="20.77734375" customWidth="1"/>
+    <col min="6" max="6" width="37.77734375" customWidth="1"/>
     <col min="7" max="7" width="22.21875" customWidth="1"/>
     <col min="8" max="8" width="36.5546875" customWidth="1"/>
   </cols>
@@ -460,189 +469,207 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="7"/>
+      <c r="F1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2">
-        <v>214748364800</v>
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="6">
+        <v>2147483648</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F3">
-        <v>214748364799</v>
+      <c r="F3" s="6">
+        <v>214748364672</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="A4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F4">
-        <v>214748364799</v>
+      <c r="F4" s="6">
+        <v>214748364800</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5">
-        <v>2147479552</v>
+        <v>7</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="6">
+        <v>214748363776</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6">
-        <v>2147483647</v>
+        <v>21</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1.84467440737095E+19</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7">
-        <v>214748364672</v>
+        <v>22</v>
+      </c>
+      <c r="F7" s="6">
+        <v>9.2233720368537201E+18</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8">
-        <v>1073741824</v>
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="6">
+        <v>214748364799</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9">
-        <v>214748363776</v>
+        <v>18</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="6">
+        <v>1073741824</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10">
-        <v>214748364799</v>
+        <v>5</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="6">
+        <v>2147479552</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11">
-        <v>1.84467440737095E+19</v>
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="6">
+        <v>2147483647</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12">
-        <v>9.2233720368537201E+18</v>
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="6">
+        <v>214748364799</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="6">
+        <v>214748364799</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:F10">
-    <sortCondition ref="A2"/>
+  <sortState ref="A1:F13">
+    <sortCondition ref="A1:A13"/>
   </sortState>
-  <mergeCells count="2">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F7443FFE2BB5364AA07A7BBEE2C00788" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c33d31759029131d8e59390615110ce0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="05882578-497b-4cf7-81dc-3721c52819b3" xmlns:ns4="4b8f695c-c865-44f8-899f-0021c83a7e4b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3c8897dff4450f2d9e66545f941b4913" ns3:_="" ns4:_="">
     <xsd:import namespace="05882578-497b-4cf7-81dc-3721c52819b3"/>
@@ -859,15 +886,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -875,6 +893,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA336002-3F8D-44FF-8E12-2E27A2ED1282}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90572E80-E379-46C4-B6CC-893D6B399554}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -893,27 +919,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA336002-3F8D-44FF-8E12-2E27A2ED1282}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA974F6F-AE17-470F-88C2-E2589A15287A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="4b8f695c-c865-44f8-899f-0021c83a7e4b"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="05882578-497b-4cf7-81dc-3721c52819b3"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>